--- a/July/Others/Service chalan list.xlsx
+++ b/July/Others/Service chalan list.xlsx
@@ -48,8 +48,24 @@
     <t>Business Manager</t>
   </si>
   <si>
+    <t>IMEI No</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Retailer Signature</t>
+  </si>
+  <si>
+    <t>Distributor: Symphony (Mobile HandSet) Edison - Group</t>
+  </si>
+  <si>
+    <t>Madrasha Market, Bagha Bajar , Bagha, Rajshahi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <r>
       <rPr>
+        <b/>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -60,6 +76,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -69,27 +86,12 @@
       <t xml:space="preserve">                                           </t>
     </r>
   </si>
-  <si>
-    <t>IMEI No</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Retailer Signature</t>
-  </si>
-  <si>
-    <t>Distributor: Symphony (Mobile HandSet) Edison - Group</t>
-  </si>
-  <si>
-    <t>Madrasha Market, Bagha Bajar , Bagha, Rajshahi.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,20 +102,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -135,14 +123,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="33"/>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
       <color theme="1"/>
       <name val="Bauhaus 93"/>
       <family val="5"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -215,43 +228,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -645,13 +659,13 @@
   </sheetPr>
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="F37" sqref="A1:G37"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="30.85546875" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
     <col min="4" max="4" width="31.7109375" customWidth="1"/>
@@ -661,426 +675,429 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="37.5" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-    </row>
-    <row r="3" spans="1:7" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A3" s="9" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" thickTop="1">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30.95" customHeight="1">
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:7" ht="30.95" customHeight="1">
+      <c r="A6" s="8">
+        <v>2</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" ht="30.95" customHeight="1">
+      <c r="A7" s="8">
+        <v>3</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" ht="30.95" customHeight="1">
+      <c r="A8" s="8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:7" ht="30.95" customHeight="1">
+      <c r="A9" s="8">
+        <v>5</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" ht="30.95" customHeight="1">
+      <c r="A10" s="8">
+        <v>6</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="1:7" ht="30.95" customHeight="1">
+      <c r="A11" s="8">
+        <v>7</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="1:7" ht="30.95" customHeight="1">
+      <c r="A12" s="8">
+        <v>8</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" ht="30.95" customHeight="1">
+      <c r="A13" s="8">
+        <v>9</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:7" ht="30.95" customHeight="1">
+      <c r="A14" s="8">
+        <v>10</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" ht="30.95" customHeight="1">
+      <c r="A15" s="8">
+        <v>11</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:7" ht="30.95" customHeight="1">
+      <c r="A16" s="8">
+        <v>12</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="1:7" ht="30.95" customHeight="1">
+      <c r="A17" s="8">
+        <v>13</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" spans="1:7" ht="30.95" customHeight="1">
+      <c r="A18" s="8">
         <v>14</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" s="3" customFormat="1" ht="24.95" customHeight="1" thickTop="1">
-      <c r="A4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="30.95" customHeight="1">
-      <c r="A5" s="2">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" ht="30.95" customHeight="1">
-      <c r="A6" s="2">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" ht="30.95" customHeight="1">
-      <c r="A7" s="2">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" ht="30.95" customHeight="1">
-      <c r="A8" s="2">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" ht="30.95" customHeight="1">
-      <c r="A9" s="2">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" ht="30.95" customHeight="1">
-      <c r="A10" s="2">
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="1:7" ht="30.95" customHeight="1">
+      <c r="A19" s="8">
+        <v>15</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="1:7" ht="30.95" customHeight="1">
+      <c r="A20" s="8">
+        <v>16</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="1:7" ht="30.95" customHeight="1">
+      <c r="A21" s="8">
+        <v>17</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:7" ht="30.95" customHeight="1">
+      <c r="A22" s="8">
+        <v>18</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="1:7" ht="30.95" customHeight="1">
+      <c r="A23" s="8">
+        <v>19</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" spans="1:7" ht="30.95" customHeight="1">
+      <c r="A24" s="8">
+        <v>20</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" spans="1:7" ht="30.95" customHeight="1">
+      <c r="A25" s="8">
+        <v>21</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" spans="1:7" ht="30.95" customHeight="1">
+      <c r="A26" s="8">
+        <v>22</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:7" ht="30.95" customHeight="1">
+      <c r="A27" s="8">
+        <v>23</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" spans="1:7" ht="30.95" customHeight="1">
+      <c r="A28" s="8">
+        <v>24</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" spans="1:7" ht="30.95" customHeight="1">
+      <c r="A29" s="8">
+        <v>25</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" spans="1:7" ht="30.95" customHeight="1">
+      <c r="A30" s="8">
+        <v>26</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" spans="1:7" ht="30.95" customHeight="1">
+      <c r="A31" s="8">
+        <v>27</v>
+      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" spans="1:7" ht="30.95" customHeight="1">
+      <c r="A32" s="8">
+        <v>28</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" spans="1:7" ht="30.95" customHeight="1">
+      <c r="A33" s="8">
+        <v>29</v>
+      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+    </row>
+    <row r="34" spans="1:7" ht="30.95" customHeight="1">
+      <c r="A34" s="8">
+        <v>30</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+    </row>
+    <row r="35" spans="1:7" s="3" customFormat="1" ht="30.95" customHeight="1">
+      <c r="A35" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" ht="30.95" customHeight="1">
-      <c r="A11" s="2">
+      <c r="B35" s="10"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" ht="30.95" customHeight="1">
-      <c r="A12" s="2">
+      <c r="G35" s="10"/>
+    </row>
+    <row r="36" spans="1:7" ht="30.95" customHeight="1">
+      <c r="A36" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" ht="30.95" customHeight="1">
-      <c r="A13" s="2">
+      <c r="B36" s="11"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="12"/>
+    </row>
+    <row r="37" spans="1:7" ht="30.95" customHeight="1">
+      <c r="A37" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" ht="30.95" customHeight="1">
-      <c r="A14" s="2">
-        <v>10</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" ht="30.95" customHeight="1">
-      <c r="A15" s="2">
-        <v>11</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" ht="30.95" customHeight="1">
-      <c r="A16" s="2">
-        <v>12</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" ht="30.95" customHeight="1">
-      <c r="A17" s="2">
-        <v>13</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" ht="30.95" customHeight="1">
-      <c r="A18" s="2">
+      <c r="B37" s="13"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" ht="30.95" customHeight="1">
-      <c r="A19" s="2">
-        <v>15</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" ht="30.95" customHeight="1">
-      <c r="A20" s="2">
-        <v>16</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" ht="30.95" customHeight="1">
-      <c r="A21" s="2">
-        <v>17</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" ht="30.95" customHeight="1">
-      <c r="A22" s="2">
-        <v>18</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" ht="30.95" customHeight="1">
-      <c r="A23" s="2">
-        <v>19</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" ht="30.95" customHeight="1">
-      <c r="A24" s="2">
-        <v>20</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" ht="30.95" customHeight="1">
-      <c r="A25" s="2">
-        <v>21</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" ht="30.95" customHeight="1">
-      <c r="A26" s="2">
-        <v>22</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" ht="30.95" customHeight="1">
-      <c r="A27" s="2">
-        <v>23</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" ht="30.95" customHeight="1">
-      <c r="A28" s="2">
-        <v>24</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" ht="30.95" customHeight="1">
-      <c r="A29" s="2">
-        <v>25</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" ht="30.95" customHeight="1">
-      <c r="A30" s="2">
-        <v>26</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" ht="30.95" customHeight="1">
-      <c r="A31" s="2">
-        <v>27</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:7" ht="30.95" customHeight="1">
-      <c r="A32" s="2">
-        <v>28</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:7" ht="30.95" customHeight="1">
-      <c r="A33" s="2">
-        <v>29</v>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:7" ht="30.95" customHeight="1">
-      <c r="A34" s="2">
-        <v>30</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:7" s="5" customFormat="1" ht="30.95" customHeight="1">
-      <c r="A35" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="11"/>
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35"/>
-      <c r="F35" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" s="11"/>
-    </row>
-    <row r="36" spans="1:7" ht="30.95" customHeight="1">
-      <c r="A36" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" s="12"/>
-      <c r="F36" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" s="13"/>
-    </row>
-    <row r="37" spans="1:7" ht="30.95" customHeight="1">
-      <c r="A37" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" s="8"/>
+      <c r="G37" s="15"/>
     </row>
     <row r="38" spans="1:7" ht="30.95" customHeight="1"/>
     <row r="39" spans="1:7" ht="30" customHeight="1"/>
